--- a/Code/Results/Cases/Case_2_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.53530810747042</v>
+        <v>11.96991345826797</v>
       </c>
       <c r="C2">
-        <v>7.29549799857906</v>
+        <v>10.81120567706507</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.97527683117562</v>
+        <v>16.57964772017429</v>
       </c>
       <c r="F2">
-        <v>25.21163851801243</v>
+        <v>36.77951474306486</v>
       </c>
       <c r="G2">
-        <v>19.78391266672147</v>
+        <v>30.13312868227559</v>
       </c>
       <c r="H2">
-        <v>8.734479406035387</v>
+        <v>14.81451105515125</v>
       </c>
       <c r="I2">
-        <v>14.39124810852989</v>
+        <v>23.88884783221761</v>
       </c>
       <c r="J2">
-        <v>5.492521519950321</v>
+        <v>7.763676358809629</v>
       </c>
       <c r="K2">
-        <v>11.59681045043163</v>
+        <v>8.316685527043457</v>
       </c>
       <c r="L2">
-        <v>8.839967761650797</v>
+        <v>12.70137982175408</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.7919024697449</v>
+        <v>22.69730888491643</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.58514809357104</v>
+        <v>11.6551591358343</v>
       </c>
       <c r="C3">
-        <v>7.351626305932093</v>
+        <v>10.83439586924669</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.73147706888119</v>
+        <v>16.57563495243377</v>
       </c>
       <c r="F3">
-        <v>24.80624787707836</v>
+        <v>36.8313907054996</v>
       </c>
       <c r="G3">
-        <v>19.95210024499131</v>
+        <v>30.29311796827507</v>
       </c>
       <c r="H3">
-        <v>8.853415839504978</v>
+        <v>14.86851405924421</v>
       </c>
       <c r="I3">
-        <v>14.63478992566645</v>
+        <v>23.99752384844511</v>
       </c>
       <c r="J3">
-        <v>5.442631290110228</v>
+        <v>7.751039829416176</v>
       </c>
       <c r="K3">
-        <v>11.0057166558713</v>
+        <v>8.087301579925686</v>
       </c>
       <c r="L3">
-        <v>8.546732485891276</v>
+        <v>12.67082374872037</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.97771945778837</v>
+        <v>22.79766379066763</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.96676634860432</v>
+        <v>11.45852491512911</v>
       </c>
       <c r="C4">
-        <v>7.387781226078224</v>
+        <v>10.84951521950415</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.58410263204159</v>
+        <v>16.57574010105909</v>
       </c>
       <c r="F4">
-        <v>24.57390614648122</v>
+        <v>36.87156926367057</v>
       </c>
       <c r="G4">
-        <v>20.07963799426889</v>
+        <v>30.3997184747962</v>
       </c>
       <c r="H4">
-        <v>8.930751349284758</v>
+        <v>14.90372665277077</v>
       </c>
       <c r="I4">
-        <v>14.79328447702583</v>
+        <v>24.06834997366074</v>
       </c>
       <c r="J4">
-        <v>5.411785498069724</v>
+        <v>7.743226244150094</v>
       </c>
       <c r="K4">
-        <v>10.62550990316459</v>
+        <v>7.943472941502468</v>
       </c>
       <c r="L4">
-        <v>8.364652028955389</v>
+        <v>12.65374400608392</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.10197476878715</v>
+        <v>22.86349462916699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.70594807423328</v>
+        <v>11.37765811286709</v>
       </c>
       <c r="C5">
-        <v>7.402938950815785</v>
+        <v>10.85589844696599</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.52470269442859</v>
+        <v>16.57643100960703</v>
       </c>
       <c r="F5">
-        <v>24.48342107807495</v>
+        <v>36.8900342768016</v>
       </c>
       <c r="G5">
-        <v>20.13740578596563</v>
+        <v>30.44525673169848</v>
       </c>
       <c r="H5">
-        <v>8.963326733760136</v>
+        <v>14.91859337076415</v>
       </c>
       <c r="I5">
-        <v>14.86006442499569</v>
+        <v>24.09824372694339</v>
       </c>
       <c r="J5">
-        <v>5.399166108061953</v>
+        <v>7.740028832514838</v>
       </c>
       <c r="K5">
-        <v>10.46632532377123</v>
+        <v>7.884189507983128</v>
       </c>
       <c r="L5">
-        <v>8.290049850974999</v>
+        <v>12.64721152796058</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.15507081713595</v>
+        <v>22.89138048889458</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.6621058296059</v>
+        <v>11.36418913123472</v>
       </c>
       <c r="C6">
-        <v>7.405481476777551</v>
+        <v>10.85697180014103</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.51488115526075</v>
+        <v>16.57658493077944</v>
       </c>
       <c r="F6">
-        <v>24.46865010926825</v>
+        <v>36.89322665764721</v>
       </c>
       <c r="G6">
-        <v>20.14733925798486</v>
+        <v>30.45294484060039</v>
       </c>
       <c r="H6">
-        <v>8.968799279250492</v>
+        <v>14.92109324159683</v>
       </c>
       <c r="I6">
-        <v>14.87128392234462</v>
+        <v>24.10326989110912</v>
       </c>
       <c r="J6">
-        <v>5.397067798680541</v>
+        <v>7.739497113563336</v>
       </c>
       <c r="K6">
-        <v>10.43963953669862</v>
+        <v>7.874307349482036</v>
       </c>
       <c r="L6">
-        <v>8.277641204937151</v>
+        <v>12.64615277689265</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.16403337548469</v>
+        <v>22.89607489154111</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.96328461753113</v>
+        <v>11.4574371480591</v>
       </c>
       <c r="C7">
-        <v>7.387983931817989</v>
+        <v>10.84960040643958</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.58329878965944</v>
+        <v>16.57574679238932</v>
       </c>
       <c r="F7">
-        <v>24.57266881513979</v>
+        <v>36.87180982212465</v>
       </c>
       <c r="G7">
-        <v>20.08039400723207</v>
+        <v>30.40032413430235</v>
       </c>
       <c r="H7">
-        <v>8.931186406777607</v>
+        <v>14.90392505509983</v>
       </c>
       <c r="I7">
-        <v>14.79417629470628</v>
+        <v>24.0687489534139</v>
       </c>
       <c r="J7">
-        <v>5.411615503519403</v>
+        <v>7.743183176059404</v>
       </c>
       <c r="K7">
-        <v>10.62338013921347</v>
+        <v>7.942676037794767</v>
       </c>
       <c r="L7">
-        <v>8.363647400180611</v>
+        <v>12.65365416919486</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.10268099624385</v>
+        <v>22.86386641872022</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21493553861299</v>
+        <v>11.86215132426379</v>
       </c>
       <c r="C8">
-        <v>7.314499135014926</v>
+        <v>10.8190192520527</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.89077696853528</v>
+        <v>16.5777322325118</v>
       </c>
       <c r="F8">
-        <v>25.0684427112343</v>
+        <v>36.79567250208689</v>
       </c>
       <c r="G8">
-        <v>19.83667906015594</v>
+        <v>30.18655285793723</v>
       </c>
       <c r="H8">
-        <v>8.774580207928917</v>
+        <v>14.83270527693544</v>
       </c>
       <c r="I8">
-        <v>14.47332355288447</v>
+        <v>23.92546919645644</v>
       </c>
       <c r="J8">
-        <v>5.475366011805377</v>
+        <v>7.759330903313674</v>
       </c>
       <c r="K8">
-        <v>11.39663782619864</v>
+        <v>8.238259295291119</v>
       </c>
       <c r="L8">
-        <v>8.739344484746518</v>
+        <v>12.69049796927661</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.85380389356746</v>
+        <v>22.73103693644569</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.39328535631802</v>
+        <v>12.62446302189016</v>
       </c>
       <c r="C9">
-        <v>7.18388072290942</v>
+        <v>10.76601044537274</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.50898128051936</v>
+        <v>16.60190968374576</v>
       </c>
       <c r="F9">
-        <v>26.1702032074515</v>
+        <v>36.71249021209641</v>
       </c>
       <c r="G9">
-        <v>19.5654160250566</v>
+        <v>29.83400485215362</v>
       </c>
       <c r="H9">
-        <v>8.502792887129582</v>
+        <v>14.70931470026655</v>
       </c>
       <c r="I9">
-        <v>13.91826779223448</v>
+        <v>23.67697740760588</v>
       </c>
       <c r="J9">
-        <v>5.598515726168248</v>
+        <v>7.790543755231506</v>
       </c>
       <c r="K9">
-        <v>12.77268066975877</v>
+        <v>8.791016267746853</v>
       </c>
       <c r="L9">
-        <v>9.455645749256403</v>
+        <v>12.77587197975445</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.45099090188105</v>
+        <v>22.50398364252141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.82756957989853</v>
+        <v>13.15982433335573</v>
       </c>
       <c r="C10">
-        <v>7.096234856681519</v>
+        <v>10.7312732227158</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.96838145232018</v>
+        <v>16.63189086000646</v>
       </c>
       <c r="F10">
-        <v>27.05537622310397</v>
+        <v>36.69172253362326</v>
       </c>
       <c r="G10">
-        <v>19.51164178499305</v>
+        <v>29.61599552631385</v>
       </c>
       <c r="H10">
-        <v>8.326396116861282</v>
+        <v>14.62853631073958</v>
       </c>
       <c r="I10">
-        <v>13.56042856081474</v>
+        <v>23.51415304056278</v>
       </c>
       <c r="J10">
-        <v>5.687631065505956</v>
+        <v>7.813175796279527</v>
       </c>
       <c r="K10">
-        <v>13.69489488653786</v>
+        <v>9.17685705497005</v>
       </c>
       <c r="L10">
-        <v>9.964338470551452</v>
+        <v>12.84628311025464</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.21389316126384</v>
+        <v>22.3575447501298</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.44450582552248</v>
+        <v>13.39696831393677</v>
       </c>
       <c r="C11">
-        <v>7.058196355667351</v>
+        <v>10.71637677894351</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.17770326423295</v>
+        <v>16.64814609368664</v>
       </c>
       <c r="F11">
-        <v>27.47366084659303</v>
+        <v>36.69102748308737</v>
       </c>
       <c r="G11">
-        <v>19.52296794745797</v>
+        <v>29.5258014848724</v>
       </c>
       <c r="H11">
-        <v>8.251651184867612</v>
+        <v>14.59392393480565</v>
       </c>
       <c r="I11">
-        <v>13.40971079603191</v>
+        <v>23.44435540317641</v>
       </c>
       <c r="J11">
-        <v>5.727829926265216</v>
+        <v>7.823401360490909</v>
       </c>
       <c r="K11">
-        <v>14.09474599788783</v>
+        <v>9.347273724104896</v>
       </c>
       <c r="L11">
-        <v>10.19104734777244</v>
+        <v>12.87991122042253</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.12047652427808</v>
+        <v>22.29535150215919</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.67305881875058</v>
+        <v>13.48577208868957</v>
       </c>
       <c r="C12">
-        <v>7.044058476201408</v>
+        <v>10.71086556164922</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.25695530840046</v>
+        <v>16.65467416678949</v>
       </c>
       <c r="F12">
-        <v>27.63422304642653</v>
+        <v>36.69202069109924</v>
       </c>
       <c r="G12">
-        <v>19.5327409631071</v>
+        <v>29.49294524120617</v>
       </c>
       <c r="H12">
-        <v>8.224180441847464</v>
+        <v>14.58112340305869</v>
       </c>
       <c r="I12">
-        <v>13.35449004399557</v>
+        <v>23.41853846487696</v>
       </c>
       <c r="J12">
-        <v>5.742999440628033</v>
+        <v>7.827262979982439</v>
       </c>
       <c r="K12">
-        <v>14.24330956078078</v>
+        <v>9.411020020426115</v>
       </c>
       <c r="L12">
-        <v>10.27615833111313</v>
+        <v>12.89286841922904</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.08732967660071</v>
+        <v>22.2724367674926</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.62406053715536</v>
+        <v>13.46669213751891</v>
       </c>
       <c r="C13">
-        <v>7.047091417565113</v>
+        <v>10.71204673837325</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.23988850429753</v>
+        <v>16.65325172125045</v>
       </c>
       <c r="F13">
-        <v>27.59954798111469</v>
+        <v>36.6917509502963</v>
       </c>
       <c r="G13">
-        <v>19.53038699219636</v>
+        <v>29.49996356800995</v>
       </c>
       <c r="H13">
-        <v>8.230058956294656</v>
+        <v>14.5838666054538</v>
       </c>
       <c r="I13">
-        <v>13.36629840249101</v>
+        <v>23.42407130632755</v>
       </c>
       <c r="J13">
-        <v>5.739734830173701</v>
+        <v>7.826431790239415</v>
       </c>
       <c r="K13">
-        <v>14.21144082862719</v>
+        <v>9.397326894483509</v>
       </c>
       <c r="L13">
-        <v>10.25786192623346</v>
+        <v>12.89006804916444</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.09436683061007</v>
+        <v>22.27734354810185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.46341033221146</v>
+        <v>13.40429466686242</v>
       </c>
       <c r="C14">
-        <v>7.057027864520061</v>
+        <v>10.71592077035474</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.18422398850927</v>
+        <v>16.64867571754703</v>
       </c>
       <c r="F14">
-        <v>27.48682741782133</v>
+        <v>36.69108402999267</v>
       </c>
       <c r="G14">
-        <v>19.52366017084615</v>
+        <v>29.52307232222792</v>
       </c>
       <c r="H14">
-        <v>8.249374183739937</v>
+        <v>14.59286468873602</v>
       </c>
       <c r="I14">
-        <v>13.40512989768421</v>
+        <v>23.44221912649861</v>
       </c>
       <c r="J14">
-        <v>5.729079014384164</v>
+        <v>7.823719273365888</v>
       </c>
       <c r="K14">
-        <v>14.10702565808493</v>
+        <v>9.352534223153528</v>
       </c>
       <c r="L14">
-        <v>10.19806461570488</v>
+        <v>12.88097278826853</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.11770395638028</v>
+        <v>22.29345353352048</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.36434877975764</v>
+        <v>13.36594231676199</v>
       </c>
       <c r="C15">
-        <v>7.063149024651799</v>
+        <v>10.71831060855497</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.15012433441251</v>
+        <v>16.64592118799779</v>
       </c>
       <c r="F15">
-        <v>27.41806267710508</v>
+        <v>36.6908390649766</v>
       </c>
       <c r="G15">
-        <v>19.52026384433282</v>
+        <v>29.5373963844323</v>
       </c>
       <c r="H15">
-        <v>8.261315216717325</v>
+        <v>14.59841616664283</v>
       </c>
       <c r="I15">
-        <v>13.42916031605602</v>
+        <v>23.45341512896192</v>
       </c>
       <c r="J15">
-        <v>5.722545011203001</v>
+        <v>7.822056384707257</v>
       </c>
       <c r="K15">
-        <v>14.04269648536361</v>
+        <v>9.324993474548027</v>
       </c>
       <c r="L15">
-        <v>10.16133910543293</v>
+        <v>12.87543050877538</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.13229344313612</v>
+        <v>22.30340427242902</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.78653994612069</v>
+        <v>13.14419091364676</v>
       </c>
       <c r="C16">
-        <v>7.098757877866212</v>
+        <v>10.73226492275199</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.95470315555529</v>
+        <v>16.63088088582769</v>
       </c>
       <c r="F16">
-        <v>27.02834785316768</v>
+        <v>36.69194390987711</v>
       </c>
       <c r="G16">
-        <v>19.51165081961298</v>
+        <v>29.62207121228139</v>
       </c>
       <c r="H16">
-        <v>8.331395084137119</v>
+        <v>14.6308412151205</v>
       </c>
       <c r="I16">
-        <v>13.57053088545531</v>
+        <v>23.51880040880594</v>
       </c>
       <c r="J16">
-        <v>5.684996784631763</v>
+        <v>7.812506080338263</v>
       </c>
       <c r="K16">
-        <v>13.66836571600713</v>
+        <v>9.165612581818786</v>
       </c>
       <c r="L16">
-        <v>9.949422372600376</v>
+        <v>12.8441170104034</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.22030145243476</v>
+        <v>22.36169826346199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.42300248797268</v>
+        <v>13.00645806378694</v>
       </c>
       <c r="C17">
-        <v>7.121074022179048</v>
+        <v>10.74105705800425</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.83485942776915</v>
+        <v>16.62232178868074</v>
       </c>
       <c r="F17">
-        <v>26.79321421095415</v>
+        <v>36.69486209759141</v>
       </c>
       <c r="G17">
-        <v>19.51577622707718</v>
+        <v>29.67632136286678</v>
       </c>
       <c r="H17">
-        <v>8.375824282058185</v>
+        <v>14.65127919833139</v>
       </c>
       <c r="I17">
-        <v>13.66042717437899</v>
+        <v>23.56000602255304</v>
       </c>
       <c r="J17">
-        <v>5.661872144253643</v>
+        <v>7.806629006875459</v>
       </c>
       <c r="K17">
-        <v>13.43366898454314</v>
+        <v>9.066491022734967</v>
       </c>
       <c r="L17">
-        <v>9.818167264407633</v>
+        <v>12.82531166620565</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.2780945968175</v>
+        <v>22.39859283111428</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.21055880708323</v>
+        <v>12.92664008640697</v>
       </c>
       <c r="C18">
-        <v>7.134081914795748</v>
+        <v>10.74619933894366</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.76596376401029</v>
+        <v>16.61764535284708</v>
       </c>
       <c r="F18">
-        <v>26.65944615333608</v>
+        <v>36.69736454984037</v>
       </c>
       <c r="G18">
-        <v>19.52149782575805</v>
+        <v>29.70836938809162</v>
       </c>
       <c r="H18">
-        <v>8.401893538136198</v>
+        <v>14.66323548542559</v>
       </c>
       <c r="I18">
-        <v>13.71326096488167</v>
+        <v>23.5841085216594</v>
       </c>
       <c r="J18">
-        <v>5.64853967711215</v>
+        <v>7.80324212603788</v>
       </c>
       <c r="K18">
-        <v>13.29682707060966</v>
+        <v>9.009001309453007</v>
       </c>
       <c r="L18">
-        <v>9.742233801312009</v>
+        <v>12.81464613950354</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.31268518122062</v>
+        <v>22.42022984595661</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.13805302478554</v>
+        <v>12.89951493041309</v>
       </c>
       <c r="C19">
-        <v>7.138515659411422</v>
+        <v>10.74795508855738</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.74264491185844</v>
+        <v>16.6161044420711</v>
       </c>
       <c r="F19">
-        <v>26.61441023092803</v>
+        <v>36.69835340970389</v>
       </c>
       <c r="G19">
-        <v>19.52399978392014</v>
+        <v>29.71936517425668</v>
       </c>
       <c r="H19">
-        <v>8.410807317199952</v>
+        <v>14.66731819782357</v>
       </c>
       <c r="I19">
-        <v>13.73133989907621</v>
+        <v>23.5923382909861</v>
       </c>
       <c r="J19">
-        <v>5.644020198144008</v>
+        <v>7.802094278632842</v>
       </c>
       <c r="K19">
-        <v>13.25017776438438</v>
+        <v>8.98945594376862</v>
       </c>
       <c r="L19">
-        <v>9.716450708491834</v>
+        <v>12.81106107964113</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.32462428649537</v>
+        <v>22.42762724033156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.46204773253891</v>
+        <v>13.02118240629754</v>
       </c>
       <c r="C20">
-        <v>7.118680583954406</v>
+        <v>10.74011229792654</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.84761381256159</v>
+        <v>16.62320743013722</v>
       </c>
       <c r="F20">
-        <v>26.81809254107531</v>
+        <v>36.69446618480548</v>
       </c>
       <c r="G20">
-        <v>19.51498800990196</v>
+        <v>29.67045885969941</v>
       </c>
       <c r="H20">
-        <v>8.371041146664634</v>
+        <v>14.64908275114494</v>
       </c>
       <c r="I20">
-        <v>13.65074002253047</v>
+        <v>23.55557799972074</v>
       </c>
       <c r="J20">
-        <v>5.664337120897843</v>
+        <v>7.807255312457387</v>
       </c>
       <c r="K20">
-        <v>13.45884457349442</v>
+        <v>9.077092512108663</v>
       </c>
       <c r="L20">
-        <v>9.832185515079832</v>
+        <v>12.82729796727687</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.27180168524945</v>
+        <v>22.39462225879095</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51073438005865</v>
+        <v>13.42264997482028</v>
       </c>
       <c r="C21">
-        <v>7.054102031057427</v>
+        <v>10.71477935598623</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.20057484593051</v>
+        <v>16.65000972022838</v>
       </c>
       <c r="F21">
-        <v>27.5198779971653</v>
+        <v>36.69124584350104</v>
       </c>
       <c r="G21">
-        <v>19.52548452241529</v>
+        <v>29.51624943002191</v>
       </c>
       <c r="H21">
-        <v>8.243677847750631</v>
+        <v>14.5902134208818</v>
       </c>
       <c r="I21">
-        <v>13.3936728585271</v>
+        <v>23.43687201331047</v>
       </c>
       <c r="J21">
-        <v>5.732210353243962</v>
+        <v>7.824516296742459</v>
       </c>
       <c r="K21">
-        <v>14.13777245016596</v>
+        <v>9.365712665455804</v>
       </c>
       <c r="L21">
-        <v>10.2156490444568</v>
+        <v>12.88363829111169</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.1107875511853</v>
+        <v>22.28870436138545</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.16659565912573</v>
+        <v>13.67918679143603</v>
       </c>
       <c r="C22">
-        <v>7.013451123216787</v>
+        <v>10.69897882859657</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.43115087999955</v>
+        <v>16.66969626982647</v>
       </c>
       <c r="F22">
-        <v>27.99112973013887</v>
+        <v>36.696462871035</v>
       </c>
       <c r="G22">
-        <v>19.56445873671959</v>
+        <v>29.42303527227782</v>
       </c>
       <c r="H22">
-        <v>8.165320219851276</v>
+        <v>14.55352478219081</v>
       </c>
       <c r="I22">
-        <v>13.23652823910209</v>
+        <v>23.36286898975331</v>
       </c>
       <c r="J22">
-        <v>5.776259220567071</v>
+        <v>7.835735428283587</v>
       </c>
       <c r="K22">
-        <v>14.56486635045499</v>
+        <v>9.549735628380567</v>
       </c>
       <c r="L22">
-        <v>10.46193549214711</v>
+        <v>12.92175621964839</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.01861961151383</v>
+        <v>22.22319117249166</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.81923674224591</v>
+        <v>13.54282706673061</v>
       </c>
       <c r="C23">
-        <v>7.03500390045932</v>
+        <v>10.70734285382849</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.30811690917855</v>
+        <v>16.65899195448725</v>
       </c>
       <c r="F23">
-        <v>27.73848726954258</v>
+        <v>36.69300944179624</v>
       </c>
       <c r="G23">
-        <v>19.54061014467027</v>
+        <v>29.47209039496147</v>
       </c>
       <c r="H23">
-        <v>8.206679161240068</v>
+        <v>14.57294293910717</v>
       </c>
       <c r="I23">
-        <v>13.31936290578961</v>
+        <v>23.40203850846245</v>
       </c>
       <c r="J23">
-        <v>5.752779178786804</v>
+        <v>7.829753410379688</v>
       </c>
       <c r="K23">
-        <v>14.33844484842938</v>
+        <v>9.45195678442167</v>
       </c>
       <c r="L23">
-        <v>10.33090250266583</v>
+        <v>12.90129566483732</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.06656329390508</v>
+        <v>22.25781711415307</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.4444060990049</v>
+        <v>13.01452749834802</v>
       </c>
       <c r="C24">
-        <v>7.119762103033015</v>
+        <v>10.74053915116472</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.84184753766979</v>
+        <v>16.62280627038614</v>
       </c>
       <c r="F24">
-        <v>26.8068406396105</v>
+        <v>36.69464260781764</v>
       </c>
       <c r="G24">
-        <v>19.51533395459544</v>
+        <v>29.67310662253157</v>
       </c>
       <c r="H24">
-        <v>8.373201965995303</v>
+        <v>14.65007512252389</v>
       </c>
       <c r="I24">
-        <v>13.65511600685337</v>
+        <v>23.55757862283251</v>
       </c>
       <c r="J24">
-        <v>5.663222822400036</v>
+        <v>7.806972184809075</v>
       </c>
       <c r="K24">
-        <v>13.4474686422092</v>
+        <v>9.072301142705239</v>
       </c>
       <c r="L24">
-        <v>9.825849332824214</v>
+        <v>12.82639950554151</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.27464247169044</v>
+        <v>22.39641602812394</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.83333004587577</v>
+        <v>12.4221991454838</v>
       </c>
       <c r="C25">
-        <v>7.217763704424107</v>
+        <v>10.77960919090583</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.34054126566656</v>
+        <v>16.59321163949836</v>
       </c>
       <c r="F25">
-        <v>25.85858154821146</v>
+        <v>36.72790749554631</v>
       </c>
       <c r="G25">
-        <v>19.6146679024064</v>
+        <v>29.9222039185675</v>
       </c>
       <c r="H25">
-        <v>8.572368184174946</v>
+        <v>14.74095765502182</v>
       </c>
       <c r="I25">
-        <v>14.06003029336151</v>
+        <v>23.74073001894731</v>
       </c>
       <c r="J25">
-        <v>5.565423673293704</v>
+        <v>7.782150772467683</v>
       </c>
       <c r="K25">
-        <v>12.41583353222404</v>
+        <v>8.644781010995926</v>
       </c>
       <c r="L25">
-        <v>9.264619374115664</v>
+        <v>12.75140224766681</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.55015964936476</v>
+        <v>22.56182931086461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.96991345826797</v>
+        <v>14.53530810747042</v>
       </c>
       <c r="C2">
-        <v>10.81120567706507</v>
+        <v>7.295497998578925</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.57964772017429</v>
+        <v>10.97527683117568</v>
       </c>
       <c r="F2">
-        <v>36.77951474306486</v>
+        <v>25.21163851801235</v>
       </c>
       <c r="G2">
-        <v>30.13312868227559</v>
+        <v>19.78391266672134</v>
       </c>
       <c r="H2">
-        <v>14.81451105515125</v>
+        <v>8.73447940603533</v>
       </c>
       <c r="I2">
-        <v>23.88884783221761</v>
+        <v>14.39124810852974</v>
       </c>
       <c r="J2">
-        <v>7.763676358809629</v>
+        <v>5.492521519950357</v>
       </c>
       <c r="K2">
-        <v>8.316685527043457</v>
+        <v>11.5968104504316</v>
       </c>
       <c r="L2">
-        <v>12.70137982175408</v>
+        <v>8.839967761650836</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.69730888491643</v>
+        <v>13.79190246974478</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.6551591358343</v>
+        <v>13.58514809357104</v>
       </c>
       <c r="C3">
-        <v>10.83439586924669</v>
+        <v>7.351626305931819</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.57563495243377</v>
+        <v>10.73147706888117</v>
       </c>
       <c r="F3">
-        <v>36.8313907054996</v>
+        <v>24.80624787707827</v>
       </c>
       <c r="G3">
-        <v>30.29311796827507</v>
+        <v>19.95210024499136</v>
       </c>
       <c r="H3">
-        <v>14.86851405924421</v>
+        <v>8.853415839505105</v>
       </c>
       <c r="I3">
-        <v>23.99752384844511</v>
+        <v>14.63478992566641</v>
       </c>
       <c r="J3">
-        <v>7.751039829416176</v>
+        <v>5.442631290110328</v>
       </c>
       <c r="K3">
-        <v>8.087301579925686</v>
+        <v>11.0057166558712</v>
       </c>
       <c r="L3">
-        <v>12.67082374872037</v>
+        <v>8.546732485891221</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.79766379066763</v>
+        <v>13.97771945778842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45852491512911</v>
+        <v>12.96676634860436</v>
       </c>
       <c r="C4">
-        <v>10.84951521950415</v>
+        <v>7.387781226078221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.57574010105909</v>
+        <v>10.58410263204155</v>
       </c>
       <c r="F4">
-        <v>36.87156926367057</v>
+        <v>24.57390614648131</v>
       </c>
       <c r="G4">
-        <v>30.3997184747962</v>
+        <v>20.07963799426927</v>
       </c>
       <c r="H4">
-        <v>14.90372665277077</v>
+        <v>8.930751349284829</v>
       </c>
       <c r="I4">
-        <v>24.06834997366074</v>
+        <v>14.79328447702594</v>
       </c>
       <c r="J4">
-        <v>7.743226244150094</v>
+        <v>5.411785498069756</v>
       </c>
       <c r="K4">
-        <v>7.943472941502468</v>
+        <v>10.6255099031646</v>
       </c>
       <c r="L4">
-        <v>12.65374400608392</v>
+        <v>8.364652028955357</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.86349462916699</v>
+        <v>14.10197476878729</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37765811286709</v>
+        <v>12.70594807423322</v>
       </c>
       <c r="C5">
-        <v>10.85589844696599</v>
+        <v>7.402938950815918</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.57643100960703</v>
+        <v>10.5247026944286</v>
       </c>
       <c r="F5">
-        <v>36.8900342768016</v>
+        <v>24.48342107807501</v>
       </c>
       <c r="G5">
-        <v>30.44525673169848</v>
+        <v>20.13740578596542</v>
       </c>
       <c r="H5">
-        <v>14.91859337076415</v>
+        <v>8.96332673376026</v>
       </c>
       <c r="I5">
-        <v>24.09824372694339</v>
+        <v>14.86006442499576</v>
       </c>
       <c r="J5">
-        <v>7.740028832514838</v>
+        <v>5.39916610806192</v>
       </c>
       <c r="K5">
-        <v>7.884189507983128</v>
+        <v>10.46632532377122</v>
       </c>
       <c r="L5">
-        <v>12.64721152796058</v>
+        <v>8.290049850974942</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.89138048889458</v>
+        <v>14.15507081713595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.36418913123472</v>
+        <v>12.66210582960595</v>
       </c>
       <c r="C6">
-        <v>10.85697180014103</v>
+        <v>7.405481476777549</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.57658493077944</v>
+        <v>10.51488115526075</v>
       </c>
       <c r="F6">
-        <v>36.89322665764721</v>
+        <v>24.4686501092681</v>
       </c>
       <c r="G6">
-        <v>30.45294484060039</v>
+        <v>20.14733925798464</v>
       </c>
       <c r="H6">
-        <v>14.92109324159683</v>
+        <v>8.96879927925043</v>
       </c>
       <c r="I6">
-        <v>24.10326989110912</v>
+        <v>14.87128392234444</v>
       </c>
       <c r="J6">
-        <v>7.739497113563336</v>
+        <v>5.397067798680538</v>
       </c>
       <c r="K6">
-        <v>7.874307349482036</v>
+        <v>10.43963953669861</v>
       </c>
       <c r="L6">
-        <v>12.64615277689265</v>
+        <v>8.277641204937169</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.89607489154111</v>
+        <v>14.16403337548455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.4574371480591</v>
+        <v>12.96328461753115</v>
       </c>
       <c r="C7">
-        <v>10.84960040643958</v>
+        <v>7.387983931818122</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.57574679238932</v>
+        <v>10.58329878965953</v>
       </c>
       <c r="F7">
-        <v>36.87180982212465</v>
+        <v>24.57266881513997</v>
       </c>
       <c r="G7">
-        <v>30.40032413430235</v>
+        <v>20.08039400723228</v>
       </c>
       <c r="H7">
-        <v>14.90392505509983</v>
+        <v>8.931186406777607</v>
       </c>
       <c r="I7">
-        <v>24.0687489534139</v>
+        <v>14.79417629470644</v>
       </c>
       <c r="J7">
-        <v>7.743183176059404</v>
+        <v>5.411615503519399</v>
       </c>
       <c r="K7">
-        <v>7.942676037794767</v>
+        <v>10.62338013921351</v>
       </c>
       <c r="L7">
-        <v>12.65365416919486</v>
+        <v>8.3636474001806</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.86386641872022</v>
+        <v>14.10268099624394</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.86215132426379</v>
+        <v>14.214935538613</v>
       </c>
       <c r="C8">
-        <v>10.8190192520527</v>
+        <v>7.31449913501465</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.5777322325118</v>
+        <v>10.89077696853534</v>
       </c>
       <c r="F8">
-        <v>36.79567250208689</v>
+        <v>25.06844271123443</v>
       </c>
       <c r="G8">
-        <v>30.18655285793723</v>
+        <v>19.83667906015604</v>
       </c>
       <c r="H8">
-        <v>14.83270527693544</v>
+        <v>8.774580207928983</v>
       </c>
       <c r="I8">
-        <v>23.92546919645644</v>
+        <v>14.47332355288449</v>
       </c>
       <c r="J8">
-        <v>7.759330903313674</v>
+        <v>5.475366011805374</v>
       </c>
       <c r="K8">
-        <v>8.238259295291119</v>
+        <v>11.3966378261986</v>
       </c>
       <c r="L8">
-        <v>12.69049796927661</v>
+        <v>8.73934448474661</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.73103693644569</v>
+        <v>13.85380389356752</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.62446302189016</v>
+        <v>16.39328535631802</v>
       </c>
       <c r="C9">
-        <v>10.76601044537274</v>
+        <v>7.183880722909554</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.60190968374576</v>
+        <v>11.50898128051936</v>
       </c>
       <c r="F9">
-        <v>36.71249021209641</v>
+        <v>26.17020320745143</v>
       </c>
       <c r="G9">
-        <v>29.83400485215362</v>
+        <v>19.56541602505646</v>
       </c>
       <c r="H9">
-        <v>14.70931470026655</v>
+        <v>8.502792887129571</v>
       </c>
       <c r="I9">
-        <v>23.67697740760588</v>
+        <v>13.91826779223446</v>
       </c>
       <c r="J9">
-        <v>7.790543755231506</v>
+        <v>5.598515726168282</v>
       </c>
       <c r="K9">
-        <v>8.791016267746853</v>
+        <v>12.77268066975884</v>
       </c>
       <c r="L9">
-        <v>12.77587197975445</v>
+        <v>9.455645749256378</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.50398364252141</v>
+        <v>13.45099090188101</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.15982433335573</v>
+        <v>17.82756957989849</v>
       </c>
       <c r="C10">
-        <v>10.7312732227158</v>
+        <v>7.096234856682035</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.63189086000646</v>
+        <v>11.96838145232029</v>
       </c>
       <c r="F10">
-        <v>36.69172253362326</v>
+        <v>27.05537622310411</v>
       </c>
       <c r="G10">
-        <v>29.61599552631385</v>
+        <v>19.51164178499291</v>
       </c>
       <c r="H10">
-        <v>14.62853631073958</v>
+        <v>8.326396116861302</v>
       </c>
       <c r="I10">
-        <v>23.51415304056278</v>
+        <v>13.56042856081485</v>
       </c>
       <c r="J10">
-        <v>7.813175796279527</v>
+        <v>5.687631065505919</v>
       </c>
       <c r="K10">
-        <v>9.17685705497005</v>
+        <v>13.69489488653787</v>
       </c>
       <c r="L10">
-        <v>12.84628311025464</v>
+        <v>9.964338470551453</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.3575447501298</v>
+        <v>13.21389316126382</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.39696831393677</v>
+        <v>18.44450582552249</v>
       </c>
       <c r="C11">
-        <v>10.71637677894351</v>
+        <v>7.058196355667212</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.64814609368664</v>
+        <v>12.17770326423294</v>
       </c>
       <c r="F11">
-        <v>36.69102748308737</v>
+        <v>27.47366084659308</v>
       </c>
       <c r="G11">
-        <v>29.5258014848724</v>
+        <v>19.522967947458</v>
       </c>
       <c r="H11">
-        <v>14.59392393480565</v>
+        <v>8.251651184867672</v>
       </c>
       <c r="I11">
-        <v>23.44435540317641</v>
+        <v>13.40971079603199</v>
       </c>
       <c r="J11">
-        <v>7.823401360490909</v>
+        <v>5.727829926265208</v>
       </c>
       <c r="K11">
-        <v>9.347273724104896</v>
+        <v>14.09474599788779</v>
       </c>
       <c r="L11">
-        <v>12.87991122042253</v>
+        <v>10.19104734777243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.29535150215919</v>
+        <v>13.12047652427817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.48577208868957</v>
+        <v>18.6730588187506</v>
       </c>
       <c r="C12">
-        <v>10.71086556164922</v>
+        <v>7.044058476201149</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.65467416678949</v>
+        <v>12.2569553084004</v>
       </c>
       <c r="F12">
-        <v>36.69202069109924</v>
+        <v>27.63422304642642</v>
       </c>
       <c r="G12">
-        <v>29.49294524120617</v>
+        <v>19.53274096310688</v>
       </c>
       <c r="H12">
-        <v>14.58112340305869</v>
+        <v>8.224180441847361</v>
       </c>
       <c r="I12">
-        <v>23.41853846487696</v>
+        <v>13.35449004399539</v>
       </c>
       <c r="J12">
-        <v>7.827262979982439</v>
+        <v>5.742999440627938</v>
       </c>
       <c r="K12">
-        <v>9.411020020426115</v>
+        <v>14.24330956078081</v>
       </c>
       <c r="L12">
-        <v>12.89286841922904</v>
+        <v>10.27615833111312</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.2724367674926</v>
+        <v>13.08732967660054</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.46669213751891</v>
+        <v>18.62406053715543</v>
       </c>
       <c r="C13">
-        <v>10.71204673837325</v>
+        <v>7.04709141756511</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.65325172125045</v>
+        <v>12.2398885042974</v>
       </c>
       <c r="F13">
-        <v>36.6917509502963</v>
+        <v>27.59954798111447</v>
       </c>
       <c r="G13">
-        <v>29.49996356800995</v>
+        <v>19.53038699219634</v>
       </c>
       <c r="H13">
-        <v>14.5838666054538</v>
+        <v>8.23005895629437</v>
       </c>
       <c r="I13">
-        <v>23.42407130632755</v>
+        <v>13.36629840249076</v>
       </c>
       <c r="J13">
-        <v>7.826431790239415</v>
+        <v>5.739734830173738</v>
       </c>
       <c r="K13">
-        <v>9.397326894483509</v>
+        <v>14.21144082862728</v>
       </c>
       <c r="L13">
-        <v>12.89006804916444</v>
+        <v>10.25786192623339</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.27734354810185</v>
+        <v>13.09436683060986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.40429466686242</v>
+        <v>18.46341033221148</v>
       </c>
       <c r="C14">
-        <v>10.71592077035474</v>
+        <v>7.057027864519921</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.64867571754703</v>
+        <v>12.18422398850924</v>
       </c>
       <c r="F14">
-        <v>36.69108402999267</v>
+        <v>27.48682741782141</v>
       </c>
       <c r="G14">
-        <v>29.52307232222792</v>
+        <v>19.52366017084619</v>
       </c>
       <c r="H14">
-        <v>14.59286468873602</v>
+        <v>8.24937418373994</v>
       </c>
       <c r="I14">
-        <v>23.44221912649861</v>
+        <v>13.4051298976842</v>
       </c>
       <c r="J14">
-        <v>7.823719273365888</v>
+        <v>5.729079014384128</v>
       </c>
       <c r="K14">
-        <v>9.352534223153528</v>
+        <v>14.10702565808494</v>
       </c>
       <c r="L14">
-        <v>12.88097278826853</v>
+        <v>10.19806461570488</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.29345353352048</v>
+        <v>13.1177039563803</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.36594231676199</v>
+        <v>18.36434877975763</v>
       </c>
       <c r="C15">
-        <v>10.71831060855497</v>
+        <v>7.06314902465193</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.64592118799779</v>
+        <v>12.15012433441255</v>
       </c>
       <c r="F15">
-        <v>36.6908390649766</v>
+        <v>27.41806267710513</v>
       </c>
       <c r="G15">
-        <v>29.5373963844323</v>
+        <v>19.52026384433282</v>
       </c>
       <c r="H15">
-        <v>14.59841616664283</v>
+        <v>8.261315216717383</v>
       </c>
       <c r="I15">
-        <v>23.45341512896192</v>
+        <v>13.4291603160561</v>
       </c>
       <c r="J15">
-        <v>7.822056384707257</v>
+        <v>5.722545011202965</v>
       </c>
       <c r="K15">
-        <v>9.324993474548027</v>
+        <v>14.0426964853636</v>
       </c>
       <c r="L15">
-        <v>12.87543050877538</v>
+        <v>10.16133910543294</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.30340427242902</v>
+        <v>13.13229344313617</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.14419091364676</v>
+        <v>17.78653994612071</v>
       </c>
       <c r="C16">
-        <v>10.73226492275199</v>
+        <v>7.098757877866204</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.63088088582769</v>
+        <v>11.95470315555533</v>
       </c>
       <c r="F16">
-        <v>36.69194390987711</v>
+        <v>27.02834785316771</v>
       </c>
       <c r="G16">
-        <v>29.62207121228139</v>
+        <v>19.51165081961292</v>
       </c>
       <c r="H16">
-        <v>14.6308412151205</v>
+        <v>8.331395084137071</v>
       </c>
       <c r="I16">
-        <v>23.51880040880594</v>
+        <v>13.57053088545527</v>
       </c>
       <c r="J16">
-        <v>7.812506080338263</v>
+        <v>5.684996784631688</v>
       </c>
       <c r="K16">
-        <v>9.165612581818786</v>
+        <v>13.66836571600716</v>
       </c>
       <c r="L16">
-        <v>12.8441170104034</v>
+        <v>9.949422372600376</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.36169826346199</v>
+        <v>13.22030145243473</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.00645806378694</v>
+        <v>17.42300248797261</v>
       </c>
       <c r="C17">
-        <v>10.74105705800425</v>
+        <v>7.121074022179305</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.62232178868074</v>
+        <v>11.83485942776914</v>
       </c>
       <c r="F17">
-        <v>36.69486209759141</v>
+        <v>26.79321421095417</v>
       </c>
       <c r="G17">
-        <v>29.67632136286678</v>
+        <v>19.51577622707717</v>
       </c>
       <c r="H17">
-        <v>14.65127919833139</v>
+        <v>8.375824282058311</v>
       </c>
       <c r="I17">
-        <v>23.56000602255304</v>
+        <v>13.66042717437904</v>
       </c>
       <c r="J17">
-        <v>7.806629006875459</v>
+        <v>5.661872144253676</v>
       </c>
       <c r="K17">
-        <v>9.066491022734967</v>
+        <v>13.43366898454309</v>
       </c>
       <c r="L17">
-        <v>12.82531166620565</v>
+        <v>9.818167264407618</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.39859283111428</v>
+        <v>13.27809459681755</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.92664008640697</v>
+        <v>17.21055880708327</v>
       </c>
       <c r="C18">
-        <v>10.74619933894366</v>
+        <v>7.134081914795612</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.61764535284708</v>
+        <v>11.76596376401032</v>
       </c>
       <c r="F18">
-        <v>36.69736454984037</v>
+        <v>26.65944615333612</v>
       </c>
       <c r="G18">
-        <v>29.70836938809162</v>
+        <v>19.52149782575794</v>
       </c>
       <c r="H18">
-        <v>14.66323548542559</v>
+        <v>8.40189353813626</v>
       </c>
       <c r="I18">
-        <v>23.5841085216594</v>
+        <v>13.71326096488163</v>
       </c>
       <c r="J18">
-        <v>7.80324212603788</v>
+        <v>5.648539677112146</v>
       </c>
       <c r="K18">
-        <v>9.009001309453007</v>
+        <v>13.29682707060968</v>
       </c>
       <c r="L18">
-        <v>12.81464613950354</v>
+        <v>9.742233801312027</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.42022984595661</v>
+        <v>13.31268518122065</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.89951493041309</v>
+        <v>17.13805302478556</v>
       </c>
       <c r="C19">
-        <v>10.74795508855738</v>
+        <v>7.138515659411284</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.6161044420711</v>
+        <v>11.74264491185836</v>
       </c>
       <c r="F19">
-        <v>36.69835340970389</v>
+        <v>26.61441023092805</v>
       </c>
       <c r="G19">
-        <v>29.71936517425668</v>
+        <v>19.52399978392032</v>
       </c>
       <c r="H19">
-        <v>14.66731819782357</v>
+        <v>8.410807317199854</v>
       </c>
       <c r="I19">
-        <v>23.5923382909861</v>
+        <v>13.73133989907618</v>
       </c>
       <c r="J19">
-        <v>7.802094278632842</v>
+        <v>5.644020198143972</v>
       </c>
       <c r="K19">
-        <v>8.98945594376862</v>
+        <v>13.25017776438432</v>
       </c>
       <c r="L19">
-        <v>12.81106107964113</v>
+        <v>9.71645070849177</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.42762724033156</v>
+        <v>13.32462428649544</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.02118240629754</v>
+        <v>17.4620477325389</v>
       </c>
       <c r="C20">
-        <v>10.74011229792654</v>
+        <v>7.118680583954408</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.62320743013722</v>
+        <v>11.84761381256155</v>
       </c>
       <c r="F20">
-        <v>36.69446618480548</v>
+        <v>26.81809254107532</v>
       </c>
       <c r="G20">
-        <v>29.67045885969941</v>
+        <v>19.51498800990192</v>
       </c>
       <c r="H20">
-        <v>14.64908275114494</v>
+        <v>8.371041146664634</v>
       </c>
       <c r="I20">
-        <v>23.55557799972074</v>
+        <v>13.65074002253045</v>
       </c>
       <c r="J20">
-        <v>7.807255312457387</v>
+        <v>5.664337120897748</v>
       </c>
       <c r="K20">
-        <v>9.077092512108663</v>
+        <v>13.45884457349442</v>
       </c>
       <c r="L20">
-        <v>12.82729796727687</v>
+        <v>9.832185515079827</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.39462225879095</v>
+        <v>13.27180168524941</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.42264997482028</v>
+        <v>18.51073438005869</v>
       </c>
       <c r="C21">
-        <v>10.71477935598623</v>
+        <v>7.054102031057297</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.65000972022838</v>
+        <v>12.20057484593051</v>
       </c>
       <c r="F21">
-        <v>36.69124584350104</v>
+        <v>27.51987799716527</v>
       </c>
       <c r="G21">
-        <v>29.51624943002191</v>
+        <v>19.52548452241498</v>
       </c>
       <c r="H21">
-        <v>14.5902134208818</v>
+        <v>8.243677847750575</v>
       </c>
       <c r="I21">
-        <v>23.43687201331047</v>
+        <v>13.39367285852694</v>
       </c>
       <c r="J21">
-        <v>7.824516296742459</v>
+        <v>5.732210353243897</v>
       </c>
       <c r="K21">
-        <v>9.365712665455804</v>
+        <v>14.13777245016601</v>
       </c>
       <c r="L21">
-        <v>12.88363829111169</v>
+        <v>10.21564904445681</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.28870436138545</v>
+        <v>13.11078755118513</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.67918679143603</v>
+        <v>19.16659565912571</v>
       </c>
       <c r="C22">
-        <v>10.69897882859657</v>
+        <v>7.01345112321665</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.66969626982647</v>
+        <v>12.4311508799996</v>
       </c>
       <c r="F22">
-        <v>36.696462871035</v>
+        <v>27.99112973013894</v>
       </c>
       <c r="G22">
-        <v>29.42303527227782</v>
+        <v>19.56445873671975</v>
       </c>
       <c r="H22">
-        <v>14.55352478219081</v>
+        <v>8.165320219851271</v>
       </c>
       <c r="I22">
-        <v>23.36286898975331</v>
+        <v>13.23652823910218</v>
       </c>
       <c r="J22">
-        <v>7.835735428283587</v>
+        <v>5.7762592205671</v>
       </c>
       <c r="K22">
-        <v>9.549735628380567</v>
+        <v>14.56486635045494</v>
       </c>
       <c r="L22">
-        <v>12.92175621964839</v>
+        <v>10.46193549214716</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.22319117249166</v>
+        <v>13.0186196115139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.54282706673061</v>
+        <v>18.81923674224593</v>
       </c>
       <c r="C23">
-        <v>10.70734285382849</v>
+        <v>7.03500390045919</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.65899195448725</v>
+        <v>12.3081169091785</v>
       </c>
       <c r="F23">
-        <v>36.69300944179624</v>
+        <v>27.73848726954251</v>
       </c>
       <c r="G23">
-        <v>29.47209039496147</v>
+        <v>19.54061014467025</v>
       </c>
       <c r="H23">
-        <v>14.57294293910717</v>
+        <v>8.206679161240007</v>
       </c>
       <c r="I23">
-        <v>23.40203850846245</v>
+        <v>13.31936290578953</v>
       </c>
       <c r="J23">
-        <v>7.829753410379688</v>
+        <v>5.752779178786804</v>
       </c>
       <c r="K23">
-        <v>9.45195678442167</v>
+        <v>14.33844484842941</v>
       </c>
       <c r="L23">
-        <v>12.90129566483732</v>
+        <v>10.3309025026658</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.25781711415307</v>
+        <v>13.06656329390501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.01452749834802</v>
+        <v>17.44440609900493</v>
       </c>
       <c r="C24">
-        <v>10.74053915116472</v>
+        <v>7.119762103033151</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.62280627038614</v>
+        <v>11.84184753766978</v>
       </c>
       <c r="F24">
-        <v>36.69464260781764</v>
+        <v>26.80684063961049</v>
       </c>
       <c r="G24">
-        <v>29.67310662253157</v>
+        <v>19.51533395459538</v>
       </c>
       <c r="H24">
-        <v>14.65007512252389</v>
+        <v>8.373201965995298</v>
       </c>
       <c r="I24">
-        <v>23.55757862283251</v>
+        <v>13.65511600685336</v>
       </c>
       <c r="J24">
-        <v>7.806972184809075</v>
+        <v>5.663222822399972</v>
       </c>
       <c r="K24">
-        <v>9.072301142705239</v>
+        <v>13.44746864220924</v>
       </c>
       <c r="L24">
-        <v>12.82639950554151</v>
+        <v>9.825849332824168</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.39641602812394</v>
+        <v>13.27464247169038</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.4221991454838</v>
+        <v>15.83333004587583</v>
       </c>
       <c r="C25">
-        <v>10.77960919090583</v>
+        <v>7.217763704423831</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.59321163949836</v>
+        <v>11.34054126566657</v>
       </c>
       <c r="F25">
-        <v>36.72790749554631</v>
+        <v>25.8585815482115</v>
       </c>
       <c r="G25">
-        <v>29.9222039185675</v>
+        <v>19.61466790240641</v>
       </c>
       <c r="H25">
-        <v>14.74095765502182</v>
+        <v>8.572368184174946</v>
       </c>
       <c r="I25">
-        <v>23.74073001894731</v>
+        <v>14.06003029336141</v>
       </c>
       <c r="J25">
-        <v>7.782150772467683</v>
+        <v>5.56542367329364</v>
       </c>
       <c r="K25">
-        <v>8.644781010995926</v>
+        <v>12.41583353222405</v>
       </c>
       <c r="L25">
-        <v>12.75140224766681</v>
+        <v>9.264619374115698</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.56182931086461</v>
+        <v>13.55015964936472</v>
       </c>
     </row>
   </sheetData>
